--- a/Histórico de Colaboradores.xlsx
+++ b/Histórico de Colaboradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -40,25 +40,40 @@
     <t xml:space="preserve">pedro@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">18.45</t>
+  </si>
+  <si>
     <t xml:space="preserve">87</t>
   </si>
   <si>
+    <t xml:space="preserve">17.46</t>
+  </si>
+  <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
+    <t xml:space="preserve">18.47</t>
+  </si>
+  <si>
     <t xml:space="preserve">89</t>
   </si>
   <si>
+    <t xml:space="preserve">19.48</t>
+  </si>
+  <si>
     <t xml:space="preserve">90</t>
   </si>
   <si>
+    <t xml:space="preserve">18.49</t>
+  </si>
+  <si>
     <t xml:space="preserve">91</t>
   </si>
   <si>
     <t xml:space="preserve">joao@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">22.87</t>
+    <t xml:space="preserve">18.87</t>
   </si>
   <si>
     <t xml:space="preserve">22.88</t>
@@ -67,10 +82,10 @@
     <t xml:space="preserve">22.89</t>
   </si>
   <si>
-    <t xml:space="preserve">22.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.91</t>
+    <t xml:space="preserve">23.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.91</t>
   </si>
   <si>
     <t xml:space="preserve">francisco@gmail.com</t>
@@ -94,13 +109,13 @@
     <t xml:space="preserve">78</t>
   </si>
   <si>
-    <t xml:space="preserve">19.14</t>
+    <t xml:space="preserve">20.14</t>
   </si>
   <si>
     <t xml:space="preserve">79</t>
   </si>
   <si>
-    <t xml:space="preserve">19.15</t>
+    <t xml:space="preserve">20.15</t>
   </si>
   <si>
     <t xml:space="preserve">80</t>
@@ -115,10 +130,10 @@
     <t xml:space="preserve">20.24</t>
   </si>
   <si>
-    <t xml:space="preserve">20.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.26</t>
+    <t xml:space="preserve">22.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.26</t>
   </si>
   <si>
     <t xml:space="preserve">92</t>
@@ -142,13 +157,157 @@
     <t xml:space="preserve">21.66</t>
   </si>
   <si>
+    <t xml:space="preserve">22.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henrique@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danilo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roberto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artur@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomas@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ezequiel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paulo@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">21.67</t>
   </si>
   <si>
-    <t xml:space="preserve">21.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.69</t>
+    <t xml:space="preserve">20.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deodoro@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adalberto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joaquim@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricardo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.61</t>
   </si>
 </sst>
 </file>
@@ -525,10 +684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,11 +726,11 @@
       <c r="C2" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>18</v>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,11 +743,11 @@
       <c r="C3" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>19</v>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,11 +760,11 @@
       <c r="C4" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>20</v>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,11 +777,11 @@
       <c r="C5" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>21</v>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,11 +794,11 @@
       <c r="C6" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>22</v>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,16 +806,16 @@
         <v>45383</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,16 +823,16 @@
         <v>45414</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,16 +840,16 @@
         <v>45446</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,16 +857,16 @@
         <v>45477</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,321 +874,1381 @@
         <v>45509</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>45383</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>45414</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>45477</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>45509</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>45414</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>34</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>45477</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>45509</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>36</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>36</v>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>45414</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>45446</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>36</v>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>31</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>45477</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>45509</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <f aca="false">C73</f>
+        <v>35</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <f aca="false">C74</f>
+        <v>35</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <f aca="false">C75</f>
+        <v>35</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <f aca="false">C76</f>
+        <v>35</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1043,6 +2262,86 @@
     <hyperlink ref="B9" r:id="rId8" display="joao@gmail.com"/>
     <hyperlink ref="B10" r:id="rId9" display="joao@gmail.com"/>
     <hyperlink ref="B11" r:id="rId10" display="joao@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId11" display="francisco@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId12" display="francisco@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId13" display="francisco@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId14" display="francisco@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId15" display="francisco@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId16" display="leocadio@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId17" display="leocadio@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId18" display="leocadio@gmail.com"/>
+    <hyperlink ref="B20" r:id="rId19" display="leocadio@gmail.com"/>
+    <hyperlink ref="B21" r:id="rId20" display="leocadio@gmail.com"/>
+    <hyperlink ref="B22" r:id="rId21" display="rafael@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId22" display="rafael@gmail.com"/>
+    <hyperlink ref="B24" r:id="rId23" display="rafael@gmail.com"/>
+    <hyperlink ref="B25" r:id="rId24" display="rafael@gmail.com"/>
+    <hyperlink ref="B26" r:id="rId25" display="rafael@gmail.com"/>
+    <hyperlink ref="B27" r:id="rId26" display="henrique@gmail.com"/>
+    <hyperlink ref="B28" r:id="rId27" display="henrique@gmail.com"/>
+    <hyperlink ref="B29" r:id="rId28" display="henrique@gmail.com"/>
+    <hyperlink ref="B30" r:id="rId29" display="henrique@gmail.com"/>
+    <hyperlink ref="B31" r:id="rId30" display="henrique@gmail.com"/>
+    <hyperlink ref="B32" r:id="rId31" display="danilo@gmail.com"/>
+    <hyperlink ref="B33" r:id="rId32" display="danilo@gmail.com"/>
+    <hyperlink ref="B34" r:id="rId33" display="danilo@gmail.com"/>
+    <hyperlink ref="B35" r:id="rId34" display="danilo@gmail.com"/>
+    <hyperlink ref="B36" r:id="rId35" display="danilo@gmail.com"/>
+    <hyperlink ref="B37" r:id="rId36" display="roberto@gmail.com"/>
+    <hyperlink ref="B38" r:id="rId37" display="roberto@gmail.com"/>
+    <hyperlink ref="B39" r:id="rId38" display="roberto@gmail.com"/>
+    <hyperlink ref="B40" r:id="rId39" display="roberto@gmail.com"/>
+    <hyperlink ref="B41" r:id="rId40" display="roberto@gmail.com"/>
+    <hyperlink ref="B42" r:id="rId41" display="artur@gmail.com"/>
+    <hyperlink ref="B43" r:id="rId42" display="artur@gmail.com"/>
+    <hyperlink ref="B44" r:id="rId43" display="artur@gmail.com"/>
+    <hyperlink ref="B45" r:id="rId44" display="artur@gmail.com"/>
+    <hyperlink ref="B46" r:id="rId45" display="artur@gmail.com"/>
+    <hyperlink ref="B47" r:id="rId46" display="tomas@gmail.com"/>
+    <hyperlink ref="B48" r:id="rId47" display="tomas@gmail.com"/>
+    <hyperlink ref="B49" r:id="rId48" display="tomas@gmail.com"/>
+    <hyperlink ref="B50" r:id="rId49" display="tomas@gmail.com"/>
+    <hyperlink ref="B51" r:id="rId50" display="tomas@gmail.com"/>
+    <hyperlink ref="B52" r:id="rId51" display="ezequiel@gmail.com"/>
+    <hyperlink ref="B53" r:id="rId52" display="ezequiel@gmail.com"/>
+    <hyperlink ref="B54" r:id="rId53" display="ezequiel@gmail.com"/>
+    <hyperlink ref="B55" r:id="rId54" display="ezequiel@gmail.com"/>
+    <hyperlink ref="B56" r:id="rId55" display="ezequiel@gmail.com"/>
+    <hyperlink ref="B57" r:id="rId56" display="paulo@gmail.com"/>
+    <hyperlink ref="B58" r:id="rId57" display="paulo@gmail.com"/>
+    <hyperlink ref="B59" r:id="rId58" display="paulo@gmail.com"/>
+    <hyperlink ref="B60" r:id="rId59" display="paulo@gmail.com"/>
+    <hyperlink ref="B61" r:id="rId60" display="paulo@gmail.com"/>
+    <hyperlink ref="B62" r:id="rId61" display="fernando@gmail.com"/>
+    <hyperlink ref="B63" r:id="rId62" display="fernando@gmail.com"/>
+    <hyperlink ref="B64" r:id="rId63" display="fernando@gmail.com"/>
+    <hyperlink ref="B65" r:id="rId64" display="fernando@gmail.com"/>
+    <hyperlink ref="B66" r:id="rId65" display="fernando@gmail.com"/>
+    <hyperlink ref="B67" r:id="rId66" display="deodoro@gmail.com"/>
+    <hyperlink ref="B68" r:id="rId67" display="deodoro@gmail.com"/>
+    <hyperlink ref="B69" r:id="rId68" display="deodoro@gmail.com"/>
+    <hyperlink ref="B70" r:id="rId69" display="deodoro@gmail.com"/>
+    <hyperlink ref="B71" r:id="rId70" display="deodoro@gmail.com"/>
+    <hyperlink ref="B72" r:id="rId71" display="adalberto@gmail.com"/>
+    <hyperlink ref="B73" r:id="rId72" display="adalberto@gmail.com"/>
+    <hyperlink ref="B74" r:id="rId73" display="adalberto@gmail.com"/>
+    <hyperlink ref="B75" r:id="rId74" display="adalberto@gmail.com"/>
+    <hyperlink ref="B76" r:id="rId75" display="adalberto@gmail.com"/>
+    <hyperlink ref="B77" r:id="rId76" display="edgar@gmail.com"/>
+    <hyperlink ref="B78" r:id="rId77" display="edgar@gmail.com"/>
+    <hyperlink ref="B79" r:id="rId78" display="edgar@gmail.com"/>
+    <hyperlink ref="B80" r:id="rId79" display="edgar@gmail.com"/>
+    <hyperlink ref="B81" r:id="rId80" display="edgar@gmail.com"/>
+    <hyperlink ref="B82" r:id="rId81" display="joaquim@gmail.com"/>
+    <hyperlink ref="B83" r:id="rId82" display="joaquim@gmail.com"/>
+    <hyperlink ref="B84" r:id="rId83" display="joaquim@gmail.com"/>
+    <hyperlink ref="B85" r:id="rId84" display="joaquim@gmail.com"/>
+    <hyperlink ref="B86" r:id="rId85" display="joaquim@gmail.com"/>
+    <hyperlink ref="B87" r:id="rId86" display="ricardo@gmail.com"/>
+    <hyperlink ref="B88" r:id="rId87" display="ricardo@gmail.com"/>
+    <hyperlink ref="B89" r:id="rId88" display="ricardo@gmail.com"/>
+    <hyperlink ref="B90" r:id="rId89" display="ricardo@gmail.com"/>
+    <hyperlink ref="B91" r:id="rId90" display="ricardo@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
